--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeyemelodie/www/lachouetteagence/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB95A9-46C7-1F4C-8789-32A8FE066CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Catégorie</t>
   </si>
@@ -37,36 +46,167 @@
   </si>
   <si>
     <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>Format images</t>
+  </si>
+  <si>
+    <t>Images lourde</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>texte non visible pendant le chargement</t>
+  </si>
+  <si>
+    <t>taille des images</t>
+  </si>
+  <si>
+    <t>pas de width ni de height aux images</t>
+  </si>
+  <si>
+    <t>Évitez de créer des chaînes de requêtes critiques</t>
+  </si>
+  <si>
+    <t>Réduisez au maximum le nombre de requêtes et la taille des transferts</t>
+  </si>
+  <si>
+    <t>Élément identifié comme "Largest Contentful Paint"</t>
+  </si>
+  <si>
+    <t>Éviter les changements de mise en page importants</t>
+  </si>
+  <si>
+    <t>fichier non utiliser</t>
+  </si>
+  <si>
+    <t>pas de meta description</t>
+  </si>
+  <si>
+    <t>https://web.dev/meta-description/</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>https://web.dev/lighthouse-largest-contentful-paint</t>
+  </si>
+  <si>
+    <t>https://web.dev/use-lighthouse-for-performance-budgets</t>
+  </si>
+  <si>
+    <t>https://web.dev/critical-request-chains</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-optimized-images</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-responsive-images</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-long-cache-ttl</t>
+  </si>
+  <si>
+    <t>https://web.dev/optimize-cls#images-without-dimensions</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-display</t>
+  </si>
+  <si>
+    <t>Les formats d'image comme JPEG 2000, JPEG XR et WebP proposent souvent une meilleure compression que les formats PNG ou JPEG. Par conséquent, les téléchargements sont plus rapides et la consommation de données est réduite.</t>
+  </si>
+  <si>
+    <t>Les images optimisées se chargent plus rapidement et consomment moins de données mobiles.</t>
+  </si>
+  <si>
+    <t>Diffusez des images de taille appropriée afin d'économiser des données mobiles et de réduire le temps de chargement.</t>
+  </si>
+  <si>
+    <t>Une longue durée de vie du cache peut accélérer les visites répétées sur votre page.</t>
+  </si>
+  <si>
+    <t>Utilisez la fonction d'affichage de la police CSS afin que le texte soit visible par l'utilisateur pendant le chargement des polices Web.</t>
+  </si>
+  <si>
+    <t>Indiquez une largeur et une hauteur explicites sur les éléments d'image afin de réduire les décalages de mise en page et d'améliorer le CLS.</t>
+  </si>
+  <si>
+    <t>Évitez d'énormes charges utiles de réseau</t>
+  </si>
+  <si>
+    <t>Les charges utiles des grands réseaux coûtent de l'argent réel aux utilisateurs et sont fortement corrélées aux délais de chargement interminables</t>
+  </si>
+  <si>
+    <t>Les chaînes de demandes critiques ci-dessous vous montrent quelles ressources sont chargées avec une priorité élevée. Envisagez de réduire la longueur des chaînes et la taille de téléchargement des ressources ou de reporter le téléchargement de ressources inutiles afin d'améliorer le chargement des pages.</t>
+  </si>
+  <si>
+    <t>Pour définir des budgets liés à la quantité et à la taille des ressources de pages, ajoutez un fichier budget.json.</t>
+  </si>
+  <si>
+    <t>Il s'agit de l'élément identifié comme "Largest Contentful Paint" dans la fenêtre d'affichage.</t>
+  </si>
+  <si>
+    <t>Ces éléments DOM contribuent en grande partie au CLS de la page.</t>
+  </si>
+  <si>
+    <t>https://web.dev/total-byte-weight</t>
+  </si>
+  <si>
+    <t>compresser les images</t>
+  </si>
+  <si>
+    <t>accessibilité</t>
+  </si>
+  <si>
+    <t>html n'a pas de lang</t>
+  </si>
+  <si>
+    <t>https://web.dev/html-lang-valid/</t>
+  </si>
+  <si>
+    <t>il y a un fichier javascript et css non utilisé lors du chargement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +214,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -84,43 +224,54 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -310,26 +461,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="21.33"/>
-    <col customWidth="1" min="5" max="5" width="18.78"/>
-    <col customWidth="1" min="6" max="6" width="21.33"/>
-    <col customWidth="1" min="7" max="26" width="10.56"/>
+    <col min="1" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,80 +522,233 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1428,9 +1734,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{779C786A-24CE-5A43-9DF4-03BDC7BE0D0A}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{C682C391-2110-874D-8739-C4E11BE03469}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{CE919627-9D05-D04E-B7B4-326D2E89DB49}"/>
+    <hyperlink ref="F7" r:id="rId4" location="images-without-dimensions" display="https://web.dev/optimize-cls/?utm_source=lighthouse&amp;utm_medium=unknown#images-without-dimensions" xr:uid="{79124408-7D43-B049-B338-AFE7D0B1E524}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{0F13B5D3-2A4C-7D4A-89E3-B185D2FD3E3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeyemelodie/www/lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996220F-C574-3F42-A405-C890C9FCE934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC42A78-37BC-C54E-9454-3DEC1BF7CD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32680" yWindow="-420" windowWidth="22980" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="22980" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeyemelodie/www/lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC42A78-37BC-C54E-9454-3DEC1BF7CD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F932CD1-D5DE-0948-89B8-479DD6023731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="22980" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="560" windowWidth="24500" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>Images lourde</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>il y a un fichier javascript et css non utilisé lors du chargement</t>
   </si>
   <si>
-    <t>contraste</t>
-  </si>
-  <si>
     <t>Les couleurs d'arrière-plan et de premier plan ne sont pas suffisamment contrastées</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>mettre la langue fr du site</t>
   </si>
   <si>
-    <t>modifier les couleur de texte et de fond pour être mieux lisible</t>
-  </si>
-  <si>
     <t>rajouter le caractère ";" dans le fichier css</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>toujours metre une lang="fr" ou lang="eu"</t>
   </si>
   <si>
-    <t xml:space="preserve">tester  les couleurs sur un site </t>
-  </si>
-  <si>
     <t>sans meta description le site ne sera pas visible lors de sa recherche sur google</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>sans ce caractère il est possible que certain élément ne s'affiche pas correctement</t>
   </si>
   <si>
-    <t xml:space="preserve">toujours mettre " ; " a la fin de ces </t>
-  </si>
-  <si>
     <t>avoir d image de petite taille</t>
   </si>
   <si>
@@ -321,9 +306,6 @@
     <t>la navigateur ne peut pas identifier les partie principale du site</t>
   </si>
   <si>
-    <t xml:space="preserve">des balises sémantiques avant de </t>
-  </si>
-  <si>
     <t>images contenant du texte</t>
   </si>
   <si>
@@ -361,13 +343,88 @@
   </si>
   <si>
     <t>mettre le bon nom de fichier pour les liens link du head</t>
+  </si>
+  <si>
+    <t>sitemap.xml</t>
+  </si>
+  <si>
+    <t>google analytics</t>
+  </si>
+  <si>
+    <t>https://moz.com/blog/absolute-beginners-guide-to-google-analytics</t>
+  </si>
+  <si>
+    <t>faire le fichier sitemap</t>
+  </si>
+  <si>
+    <t>balise vide= ligne de code en plus</t>
+  </si>
+  <si>
+    <t>supprimer les balises que vous n'utilisez pas</t>
+  </si>
+  <si>
+    <t>retrait des balises vides</t>
+  </si>
+  <si>
+    <t>robot.txt</t>
+  </si>
+  <si>
+    <t>Votre site ne contient pas de fichier robots.txt.</t>
+  </si>
+  <si>
+    <t>ceci peu affaiblir votre referencement</t>
+  </si>
+  <si>
+    <t>créer un fichier robot.txt lorsque votre site sera en ligne</t>
+  </si>
+  <si>
+    <t>Un plan du site xml repertorie les URL qui peuvent être explorées et peut donner d'autres information comme votre fréquence de mise à jours, votre dernière mise à jour et l'importance.</t>
+  </si>
+  <si>
+    <t>Ne pas faire de black hat c'est a dire cacher du texte pour être référencer. Sauf que maintenant google bloque les site qui utilise cette methode</t>
+  </si>
+  <si>
+    <t>mettre les mots clé dans une balise alt ou ancre de lien</t>
+  </si>
+  <si>
+    <t>toujours mettre " ; " a la fin de ces code css</t>
+  </si>
+  <si>
+    <t>Une taillee de texte petit nuis a la visibilité lorsqu'on visite le site</t>
+  </si>
+  <si>
+    <t>mettre un bonne taille de texte</t>
+  </si>
+  <si>
+    <t>agrandir le texte pour quel soit facil a lire</t>
+  </si>
+  <si>
+    <t>https://www.abondance.com/20200616-43033-quelle-est-la-taille-ideale-dun-texte-en-seo-video-seo-abondance-n161.html</t>
+  </si>
+  <si>
+    <t>des balises structurels avant de commencer a coder le contenue du site</t>
+  </si>
+  <si>
+    <t>mettre les balises structurel pour identifier les parties du site</t>
+  </si>
+  <si>
+    <t>ce site ne contient pas de plan du site XML, ce qui peut affaiblir votre référencement.</t>
+  </si>
+  <si>
+    <t>contraste du texte par rapport au background</t>
+  </si>
+  <si>
+    <t>tester le ratio entre la couleur du textet l'arrière plan sur un site par exemple contraste checkerd</t>
+  </si>
+  <si>
+    <t>modifier les couleur de texte et de fond pour quelle soit mieux visible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +481,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -459,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,6 +555,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -707,7 +779,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,178 +836,192 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -944,10 +1030,10 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="b">
@@ -956,260 +1042,344 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>104</v>
+      <c r="C27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="F30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2198,6 +2368,8 @@
     <hyperlink ref="F4" r:id="rId15" xr:uid="{F97057E8-CC4D-6C4C-B22C-528FF71C00FE}"/>
     <hyperlink ref="F5" r:id="rId16" xr:uid="{EF94B4F9-E0BB-0E4F-B7B9-AA4246CE1080}"/>
     <hyperlink ref="F21" r:id="rId17" xr:uid="{DFB6B558-CB64-E140-ADF4-84943B17DE1F}"/>
+    <hyperlink ref="F27" r:id="rId18" xr:uid="{9468C23B-437D-624A-AE14-F8E8814A4CED}"/>
+    <hyperlink ref="F30" r:id="rId19" xr:uid="{430D5EDE-D644-CB49-B3DE-14BA8FB80D93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeyemelodie/www/lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F932CD1-D5DE-0948-89B8-479DD6023731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662C603-896B-EF4B-8234-76849E8A1414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="560" windowWidth="24500" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1320" windowWidth="23920" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
   <si>
     <t>Catégorie</t>
   </si>
@@ -57,9 +57,6 @@
     <t>taille des images</t>
   </si>
   <si>
-    <t>pas de width ni de height aux images</t>
-  </si>
-  <si>
     <t>Évitez de créer des chaînes de requêtes critiques</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Éviter les changements de mise en page importants</t>
   </si>
   <si>
-    <t>fichier non utiliser</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Les charges utiles des grands réseaux coûtent de l'argent réel aux utilisateurs et sont fortement corrélées aux délais de chargement interminables</t>
   </si>
   <si>
-    <t>Les chaînes de demandes critiques ci-dessous vous montrent quelles ressources sont chargées avec une priorité élevée. Envisagez de réduire la longueur des chaînes et la taille de téléchargement des ressources ou de reporter le téléchargement de ressources inutiles afin d'améliorer le chargement des pages.</t>
-  </si>
-  <si>
     <t>Pour définir des budgets liés à la quantité et à la taille des ressources de pages, ajoutez un fichier budget.json.</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>html n'a pas de lang</t>
   </si>
   <si>
-    <t>il y a un fichier javascript et css non utilisé lors du chargement</t>
-  </si>
-  <si>
     <t>Les couleurs d'arrière-plan et de premier plan ne sont pas suffisamment contrastées</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
     <t>changer le format des images en .jpg</t>
   </si>
   <si>
-    <t>convertir image en .jpg</t>
-  </si>
-  <si>
     <t>il manque le caractère ";" dans le fichier boostrap.css</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>mettre un link pour la police</t>
   </si>
   <si>
-    <t>mettre une width et un height</t>
-  </si>
-  <si>
     <t>mettre les titres correctement classé</t>
   </si>
   <si>
@@ -366,12 +348,6 @@
     <t>retrait des balises vides</t>
   </si>
   <si>
-    <t>robot.txt</t>
-  </si>
-  <si>
-    <t>Votre site ne contient pas de fichier robots.txt.</t>
-  </si>
-  <si>
     <t>ceci peu affaiblir votre referencement</t>
   </si>
   <si>
@@ -418,6 +394,51 @@
   </si>
   <si>
     <t>modifier les couleur de texte et de fond pour quelle soit mieux visible</t>
+  </si>
+  <si>
+    <t>Envisagez de réduire la longueur des chaînes et la taille de téléchargement des ressources ou de reporter le téléchargement de ressources inutiles afin d'améliorer le chargement des pages.</t>
+  </si>
+  <si>
+    <t>Les chaînes de demandes critiques vous montrent quelles ressources sont chargées avec une priorité élevée.</t>
+  </si>
+  <si>
+    <t>convertir image .bmp en .jpg</t>
+  </si>
+  <si>
+    <t>Le site ne contient pas de fichier robots.txt.</t>
+  </si>
+  <si>
+    <t>https://www.thomascubel.com/balise-title-seo</t>
+  </si>
+  <si>
+    <t>https://www.24joursdeweb.fr/2017/le-focus-nest-pas-juste-une-astuce</t>
+  </si>
+  <si>
+    <t>https://fr.oncrawl.com/referencement/limportance-du-sitemap-xml-en-seo</t>
+  </si>
+  <si>
+    <t>https://efficaceweb.fr/articles/fichier-robots-txt-cest-quoi-definition-seo</t>
+  </si>
+  <si>
+    <t>dimensionner les images</t>
+  </si>
+  <si>
+    <t>faire un minify pour les fichiers JavaScript</t>
+  </si>
+  <si>
+    <t>Réduire la taille des ressources JavaScript</t>
+  </si>
+  <si>
+    <t>La minimisation des fichiers JavaScript peut réduire la taille des charges utiles et la durée d'analyse des scripts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille des fichiers JavaScript </t>
+  </si>
+  <si>
+    <t>images non dimensionné</t>
+  </si>
+  <si>
+    <t>Les éléments d'images ne possèdent pas de width ni de height explicites</t>
   </si>
 </sst>
 </file>
@@ -778,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -836,62 +857,62 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -900,128 +921,128 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -1029,358 +1050,379 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D30" s="11"/>
       <c r="F30" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>115</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>108</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2370,6 +2412,10 @@
     <hyperlink ref="F21" r:id="rId17" xr:uid="{DFB6B558-CB64-E140-ADF4-84943B17DE1F}"/>
     <hyperlink ref="F27" r:id="rId18" xr:uid="{9468C23B-437D-624A-AE14-F8E8814A4CED}"/>
     <hyperlink ref="F30" r:id="rId19" xr:uid="{430D5EDE-D644-CB49-B3DE-14BA8FB80D93}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{2B73E784-4329-8344-9DDE-71DB355B83BB}"/>
+    <hyperlink ref="F26" r:id="rId21" xr:uid="{B4FFD814-CEB4-7C4D-96DB-F24B3C7FB607}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{27898570-1B86-864B-B873-247336D71102}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{766B93B7-FFE6-A646-8CE2-009562BFC5D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
